--- a/Assets/Datas/MortalGames.xlsx
+++ b/Assets/Datas/MortalGames.xlsx
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>99.0</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="3">
         <v>4.0</v>

--- a/Assets/Datas/MortalGames.xlsx
+++ b/Assets/Datas/MortalGames.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
   <si>
     <t>Id</t>
   </si>
@@ -272,6 +272,129 @@
   <si>
     <t>每回恢復5
 每回抽4張牌</t>
+  </si>
+  <si>
+    <t>EffectTimes</t>
+  </si>
+  <si>
+    <t>重複</t>
+  </si>
+  <si>
+    <t>打出卡牌時，重複該卡牌效果</t>
+  </si>
+  <si>
+    <t>RecycleTimes</t>
+  </si>
+  <si>
+    <t>回收</t>
+  </si>
+  <si>
+    <t>打出卡牌後，將該卡牌直接拿回手上</t>
+  </si>
+  <si>
+    <t>Initialize</t>
+  </si>
+  <si>
+    <t>優先</t>
+  </si>
+  <si>
+    <t>第一回合抽牌時，會優先抽到手上</t>
+  </si>
+  <si>
+    <t>Preserved</t>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>回合結束時，不會自動被丟棄到棄牌區</t>
+  </si>
+  <si>
+    <t>Sealed</t>
+  </si>
+  <si>
+    <t>無法在手牌中直接打出</t>
+  </si>
+  <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>打出卡牌後不會進到棄牌區，這場戰鬥中無法再使用該卡牌</t>
+  </si>
+  <si>
+    <t>Dispose</t>
+  </si>
+  <si>
+    <t>耗盡</t>
+  </si>
+  <si>
+    <t>打出卡牌後不會進到棄牌區，這場戰鬥和後續戰鬥皆無法再使用該卡牌</t>
+  </si>
+  <si>
+    <t>AutoDispose</t>
+  </si>
+  <si>
+    <t>衰竭</t>
+  </si>
+  <si>
+    <t>回合結束時，若在手牌中會被自動耗盡</t>
+  </si>
+  <si>
+    <t>Drawed</t>
+  </si>
+  <si>
+    <t>入手</t>
+  </si>
+  <si>
+    <t>從牌堆被抽至手牌中</t>
+  </si>
+  <si>
+    <t>EffectDrawed</t>
+  </si>
+  <si>
+    <t>靈感</t>
+  </si>
+  <si>
+    <t>除了回合開始抽牌以外的時機，由效果觸發從牌堆被抽至手牌中</t>
+  </si>
+  <si>
+    <t>Played</t>
+  </si>
+  <si>
+    <t>打出</t>
+  </si>
+  <si>
+    <t>從手牌中耗費氣力主動打出</t>
+  </si>
+  <si>
+    <t>EffectPlayed</t>
+  </si>
+  <si>
+    <t>激發</t>
+  </si>
+  <si>
+    <t>由其他效果觸發而發動卡片</t>
+  </si>
+  <si>
+    <t>Discarded</t>
+  </si>
+  <si>
+    <t>丟棄</t>
+  </si>
+  <si>
+    <t>從手牌中被丟棄至棄牌區</t>
+  </si>
+  <si>
+    <t>EffectDiscarded</t>
+  </si>
+  <si>
+    <t>廢棄</t>
+  </si>
+  <si>
+    <t>由其他效果觸發而丟棄至棄牌區</t>
   </si>
   <si>
     <t>ComboAttack</t>
@@ -1129,6 +1252,160 @@
         <v>82</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1165,57 +1442,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1254,24 +1531,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Datas/MortalGames.xlsx
+++ b/Assets/Datas/MortalGames.xlsx
@@ -10,6 +10,7 @@
     <sheet state="visible" name="LocalizeKeyWord" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="LocalizePlayerBuff" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="LocalizePlayer" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="LocalizeUI" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="152">
   <si>
     <t>Id</t>
   </si>
@@ -445,6 +446,45 @@
   </si>
   <si>
     <t>路人俠</t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>Tomb</t>
+  </si>
+  <si>
+    <t>TurnSubmit</t>
+  </si>
+  <si>
+    <t>結束</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>回合</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>檢視</t>
+  </si>
+  <si>
+    <t>SelectionDescription</t>
+  </si>
+  <si>
+    <t>選擇 {0} / {1}  張卡片</t>
   </si>
 </sst>
 </file>
@@ -530,6 +570,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1554,4 +1598,90 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.63"/>
+    <col customWidth="1" min="2" max="2" width="105.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>